--- a/data/Stock_List.xlsx
+++ b/data/Stock_List.xlsx
@@ -31101,7 +31101,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2:F957 C1:F1 A1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1 C1:F1 A2:F957" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>